--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/piratage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39D3BF4-7584-8047-B1CB-4236B4C56457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD0627A-6E79-7743-93FD-39E992DFA5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="760" windowWidth="16360" windowHeight="17600" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
+    <workbookView xWindow="340" yWindow="760" windowWidth="16360" windowHeight="17600" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="horaire" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -183,12 +183,6 @@
   </si>
   <si>
     <t>[Programmation](exercices/22_Programmer_application_securisee.md) &lt;br/&gt;[Protection injection SQL](exercices/23_Proteger_injection_SQL.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Authentification](lecons/25_Authentification.md)           </t>
-  </si>
-  <si>
-    <t>[Authentification](exercices/25_Authentification.md)</t>
   </si>
   <si>
     <t>[Chiffrement et données sensibles](lecons/24_Chiffrement_et_donnees_sensibles.md)</t>
@@ -592,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1056,7 +1050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14</v>
       </c>
@@ -1070,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1084,10 +1078,10 @@
         <v>45632.510416666664</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1101,10 +1095,10 @@
         <v>45635.552083333336</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1118,10 +1112,10 @@
         <v>45639.510416666664</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/piratage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD0627A-6E79-7743-93FD-39E992DFA5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70D7FD1-4DD2-224C-A548-5C0A10B5F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="760" windowWidth="16360" windowHeight="17600" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -53,144 +53,18 @@
     <t>Semaine</t>
   </si>
   <si>
-    <t xml:space="preserve">[Introduction](lecons/01_Introduction.md) &lt;br/&gt;[Mots de passe](lecons/01b_Mots_de_passe.md)            </t>
-  </si>
-  <si>
-    <t>[Bâtir le laboratoire](exercices/01_Exercices_Laboratoire.md)</t>
-  </si>
-  <si>
-    <t>[Reconnaissance passive](lecons/02_Reconnaissance_passive.md)</t>
-  </si>
-  <si>
-    <t>[Reconnaissance passive](exercices/02_Exercices_Reconnaissance_passive.md)</t>
-  </si>
-  <si>
-    <t>[Reconnaissance active](lecons/03_Reconnaissance_active.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Reconnaissance active](exercices/03_Reconnaissance_active.md) </t>
-  </si>
-  <si>
-    <t>[Écoute du réseau](lecons/04_Ecoute_reseau.md)</t>
-  </si>
-  <si>
-    <t>[Écoute du réseau](exercices/04_Ecoute_reseau.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Gestion de risques](lecons/05_Gestion_de_risques.md) </t>
-  </si>
-  <si>
-    <t>[Gestion du risque](exercices/05_Gestion_de_risques.md)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaluation formative (1h)&lt;br/&gt;retour sur évaluation (1h)                </t>
   </si>
   <si>
-    <t>[Introduction à Metasploit](lecons/06_Intro_Metasploit.md)</t>
-  </si>
-  <si>
-    <t>[Introduction à Metasploit](exercices/06_Intro_Metasploit.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Stratégies de sauvegarde](lecons/07_Strategies_sauvegarde.md)                  </t>
-  </si>
-  <si>
-    <t>[Stratégie de sauvegarde](exercices/07_strategie_sauvegarde.md)</t>
-  </si>
-  <si>
-    <t>[Pare-feux](lecons/08_Pare_feu.md)</t>
-  </si>
-  <si>
-    <t>[Pare-feux](exercices/08_Pare_feu.md)</t>
-  </si>
-  <si>
-    <t>[Vulnérabilités Web](lecons/19_Vulnerabilites_Web.md)</t>
-  </si>
-  <si>
-    <t>[Vulnérabilités Web](exercices/19_Vulnerabilites_Web.md)</t>
-  </si>
-  <si>
-    <t>[Injections SQL](lecons/20_Injection_SQL.md)</t>
-  </si>
-  <si>
-    <t>[Injections SQL](exercices/20_Injection_SQL.md)</t>
-  </si>
-  <si>
-    <t>[Cryptographie](lecons/10_Cryptographie.md)</t>
-  </si>
-  <si>
-    <t>[Cryptographie](exercices/10_Cryptographie.md)</t>
-  </si>
-  <si>
-    <t>[Tests de pénétration](lecons/14_Tests_penetration.md)</t>
-  </si>
-  <si>
-    <t>[Tests de pénétration](exercices/14_Tests_penetration.md)</t>
-  </si>
-  <si>
     <t>Hack Lab (pratique seulement)</t>
   </si>
   <si>
     <t>[Évaluation : Hack Lab](evaluations/Hack_lab.md)</t>
   </si>
   <si>
-    <t>[Inventaire d'actifs](lecons/11_Inventaire_Actifs.md)</t>
-  </si>
-  <si>
-    <t>[Classification d'actifs](exercices/10_classification_actifs.md)</t>
-  </si>
-  <si>
-    <t>[Pénétration de réseaux sans-fils](lecons/13_Penetration_reseau_sans_fils.md)</t>
-  </si>
-  <si>
-    <t>[Pénétration de réseaux sans-fils](exercices/13_Penetration_reseau_sans_fils.md)</t>
-  </si>
-  <si>
-    <t>[Lois](lecons/18_Lois.md)</t>
-  </si>
-  <si>
-    <t>[Lois](exercices/18_Lois.md)</t>
-  </si>
-  <si>
-    <t>[Antivirus et PDF malicieux](lecons/09_Antivirus_et_PDF_malicieux.md)</t>
-  </si>
-  <si>
-    <t>[PDF Malicieux](exercices/09_PDF_Malicieux.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Hameçonnage](lecons/10_Hameconnage.md)  </t>
-  </si>
-  <si>
-    <t>[Hameconnage](exercices/10_Hameconnage.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Détection d'intrusion](lecons/17_Detection_intrusion.md)       </t>
-  </si>
-  <si>
-    <t>[Détection d'intrusion](exercices/17_Detection_intrusion.md)</t>
-  </si>
-  <si>
-    <t>[Sécuriser serveur Apache](lecons/21_Securiser_Apache.md)</t>
-  </si>
-  <si>
-    <t>[Sécuriser serveur Apache](exercices/21_Securiser_Apache.md)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Examen mi-session   </t>
   </si>
   <si>
-    <t>[Programmer application sécurisée](lecons/22_Programmer_application_securisee.md) &lt;br/&gt; [Protection injection SQL](lecons/23_Protection_Injection_SQL.md)</t>
-  </si>
-  <si>
-    <t>[Programmation](exercices/22_Programmer_application_securisee.md) &lt;br/&gt;[Protection injection SQL](exercices/23_Proteger_injection_SQL.md)</t>
-  </si>
-  <si>
-    <t>[Chiffrement et données sensibles](lecons/24_Chiffrement_et_donnees_sensibles.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Chiffrement](exercices/24_Chiffrement.md) </t>
-  </si>
-  <si>
     <t>Terminer MonMur</t>
   </si>
   <si>
@@ -198,6 +72,132 @@
   </si>
   <si>
     <t>Examen final - Deuxième partie</t>
+  </si>
+  <si>
+    <t>[Bâtir le laboratoire](exercices/Exercices_Laboratoire.md)</t>
+  </si>
+  <si>
+    <t>[Reconnaissance passive](lecons/Reconnaissance_passive.md)</t>
+  </si>
+  <si>
+    <t>[Reconnaissance passive](exercices/Exercices_Reconnaissance_passive.md)</t>
+  </si>
+  <si>
+    <t>[Reconnaissance active](lecons/Reconnaissance_active.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Reconnaissance active](exercices/Reconnaissance_active.md) </t>
+  </si>
+  <si>
+    <t>[Écoute du réseau](lecons/Ecoute_reseau.md)</t>
+  </si>
+  <si>
+    <t>[Écoute du réseau](exercices/Ecoute_reseau.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Gestion de risques](lecons/Gestion_de_risques.md) </t>
+  </si>
+  <si>
+    <t>[Gestion du risque](exercices/Gestion_de_risques.md)</t>
+  </si>
+  <si>
+    <t>[Introduction à Metasploit](lecons/Intro_Metasploit.md)</t>
+  </si>
+  <si>
+    <t>[Introduction à Metasploit](exercices/Intro_Metasploit.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Stratégies de sauvegarde](lecons/Strategies_sauvegarde.md)                  </t>
+  </si>
+  <si>
+    <t>[Stratégie de sauvegarde](exercices/strategie_sauvegarde.md)</t>
+  </si>
+  <si>
+    <t>[Pare-feux](lecons/Pare_feu.md)</t>
+  </si>
+  <si>
+    <t>[Pare-feux](exercices/Pare_feu.md)</t>
+  </si>
+  <si>
+    <t>[Antivirus et PDF malicieux](lecons/Antivirus_et_PDF_malicieux.md)</t>
+  </si>
+  <si>
+    <t>[PDF Malicieux](exercices/PDF_Malicieux.md)</t>
+  </si>
+  <si>
+    <t>[Cryptographie](lecons/Cryptographie.md)</t>
+  </si>
+  <si>
+    <t>[Cryptographie](exercices/Cryptographie.md)</t>
+  </si>
+  <si>
+    <t>[Classification d'actifs](exercices/classification_actifs.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Hameçonnage](lecons/Hameconnage.md)  </t>
+  </si>
+  <si>
+    <t>[Hameconnage](exercices/Hameconnage.md)</t>
+  </si>
+  <si>
+    <t>[Inventaire d'actifs](lecons/Inventaire_Actifs.md)</t>
+  </si>
+  <si>
+    <t>[Pénétration de réseaux sans-fils](lecons/Penetration_reseau_sans_fils.md)</t>
+  </si>
+  <si>
+    <t>[Pénétration de réseaux sans-fils](exercices/Penetration_reseau_sans_fils.md)</t>
+  </si>
+  <si>
+    <t>[Tests de pénétration](lecons/Tests_penetration.md)</t>
+  </si>
+  <si>
+    <t>[Tests de pénétration](exercices/Tests_penetration.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Détection d'intrusion](lecons/Detection_intrusion.md)       </t>
+  </si>
+  <si>
+    <t>[Détection d'intrusion](exercices/Detection_intrusion.md)</t>
+  </si>
+  <si>
+    <t>[Lois](lecons/Lois.md)</t>
+  </si>
+  <si>
+    <t>[Lois](exercices/Lois.md)</t>
+  </si>
+  <si>
+    <t>[Vulnérabilités Web](lecons/Vulnerabilites_Web.md)</t>
+  </si>
+  <si>
+    <t>[Vulnérabilités Web](exercices/Vulnerabilites_Web.md)</t>
+  </si>
+  <si>
+    <t>[Injections SQL](lecons/Injection_SQL.md)</t>
+  </si>
+  <si>
+    <t>[Injections SQL](exercices/Injection_SQL.md)</t>
+  </si>
+  <si>
+    <t>[Sécuriser serveur Apache](lecons/Securiser_Apache.md)</t>
+  </si>
+  <si>
+    <t>[Sécuriser serveur Apache](exercices/Securiser_Apache.md)</t>
+  </si>
+  <si>
+    <t>[Programmer application sécurisée](lecons/Programmer_application_securisee.md) &lt;br/&gt; [Protection injection SQL](lecons/Protection_Injection_SQL.md)</t>
+  </si>
+  <si>
+    <t>[Programmation](exercices/Programmer_application_securisee.md) &lt;br/&gt;[Protection injection SQL](exercices/Proteger_injection_SQL.md)</t>
+  </si>
+  <si>
+    <t>[Chiffrement et données sensibles](lecons/Chiffrement_et_donnees_sensibles.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Chiffrement](exercices/Chiffrement.md) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Introduction](lecons/Introduction.md) &lt;br/&gt;[Mots de passe](lecons/Mots_de_passe.md)            </t>
   </si>
 </sst>
 </file>
@@ -586,14 +586,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="86.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,10 +625,10 @@
         <v>45527.510416666664</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -642,10 +642,10 @@
         <v>45530.552083333336</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -659,10 +659,10 @@
         <v>45534.510416666664</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -676,10 +676,10 @@
         <v>45540.552083333336</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -693,10 +693,10 @@
         <v>45541.510416666664</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -710,10 +710,10 @@
         <v>45544.552083333336</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -724,10 +724,10 @@
         <v>45548.510416666664</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -741,10 +741,10 @@
         <v>45551.552083333336</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -758,10 +758,10 @@
         <v>45555.510416666664</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -775,10 +775,10 @@
         <v>45558.552083333336</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -792,10 +792,10 @@
         <v>45562.510416666664</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -809,10 +809,10 @@
         <v>45565.552083333336</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -826,10 +826,10 @@
         <v>45569.510416666664</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -843,10 +843,10 @@
         <v>45572.552083333336</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -860,10 +860,10 @@
         <v>45576.510416666664</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -877,10 +877,10 @@
         <v>45586.552083333336</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -894,10 +894,10 @@
         <v>45590.510416666664</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -911,10 +911,10 @@
         <v>45593.552083333336</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -928,10 +928,10 @@
         <v>45597.510416666664</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -945,13 +945,13 @@
         <v>45600.552083333336</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11</v>
       </c>
@@ -962,10 +962,10 @@
         <v>45607.552083333336</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -979,10 +979,10 @@
         <v>45611.510416666664</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -996,10 +996,10 @@
         <v>45614.552083333336</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1013,10 +1013,10 @@
         <v>45618.510416666664</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1027,10 +1027,10 @@
         <v>45621.552083333336</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1044,10 +1044,10 @@
         <v>45625.510416666664</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1061,10 +1061,10 @@
         <v>45628.552083333336</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1078,10 +1078,10 @@
         <v>45632.510416666664</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1095,10 +1095,10 @@
         <v>45635.552083333336</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1112,10 +1112,10 @@
         <v>45639.510416666664</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/piratage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70D7FD1-4DD2-224C-A548-5C0A10B5F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AF7EE-BB85-1B4F-BF78-6D5EC60B22A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="760" windowWidth="16360" windowHeight="17600" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>[Reconnaissance passive](lecons/Reconnaissance_passive.md)</t>
   </si>
   <si>
-    <t>[Reconnaissance passive](exercices/Exercices_Reconnaissance_passive.md)</t>
-  </si>
-  <si>
     <t>[Reconnaissance active](lecons/Reconnaissance_active.md)</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t xml:space="preserve">[Introduction](lecons/Introduction.md) &lt;br/&gt;[Mots de passe](lecons/Mots_de_passe.md)            </t>
+  </si>
+  <si>
+    <t>[Reconnaissance passive](exercices/reconnaissance_passive.md)</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -240,27 +240,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="5"/>
+        <color theme="4"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,8 +257,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,16 +610,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>45527.510416666664</v>
+        <v>45891.46875</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -639,16 +627,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45530.552083333336</v>
+        <v>45895.552083333336</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -656,16 +644,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>45534.510416666664</v>
+        <v>45898.46875</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -673,16 +661,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>45540.552083333336</v>
+        <v>45902.552083333336</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -690,16 +678,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>45541.510416666664</v>
+        <v>45905.46875</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -707,13 +695,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>45544.552083333336</v>
+        <v>45912.552083333336</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -721,16 +709,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>45548.510416666664</v>
+        <v>45916.552083333336</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -738,13 +726,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>45551.552083333336</v>
+        <v>45919.46875</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -755,16 +743,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>45555.510416666664</v>
+        <v>45923.552083333336</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -772,16 +760,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>45558.552083333336</v>
+        <v>45926.46875</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -789,16 +777,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>45562.510416666664</v>
+        <v>45930.552083333336</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -806,16 +794,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>45565.552083333336</v>
+        <v>45933.46875</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -823,13 +811,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>45569.510416666664</v>
+        <v>45937.552083333336</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -840,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>45572.552083333336</v>
+        <v>45940.46875</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
@@ -857,7 +845,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>45576.510416666664</v>
+        <v>45951.552083333336</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -874,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>45586.552083333336</v>
+        <v>45954.46875</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -883,7 +871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -891,16 +879,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>45590.510416666664</v>
+        <v>45958.552083333336</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -908,13 +896,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>45593.552083333336</v>
+        <v>45961.46875</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -925,16 +913,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>45597.510416666664</v>
+        <v>45965.552083333336</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
         <v>41</v>
       </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -942,13 +930,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="3">
-        <v>45600.552083333336</v>
+        <v>45968.46875</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
         <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -959,16 +947,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>45607.552083333336</v>
+        <v>45972.552083333336</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -976,16 +964,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>45611.510416666664</v>
+        <v>45975.46875</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -993,13 +981,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>45614.552083333336</v>
+        <v>45979.552083333336</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
         <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1010,13 +998,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>45618.510416666664</v>
+        <v>45982.46875</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1024,16 +1012,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>45621.552083333336</v>
+        <v>45986.552083333336</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1041,13 +1029,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="3">
-        <v>45625.510416666664</v>
+        <v>45989.46875</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
         <v>51</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1058,7 +1046,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3">
-        <v>45628.552083333336</v>
+        <v>45993.552083333336</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -1075,7 +1063,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="3">
-        <v>45632.510416666664</v>
+        <v>45996.46875</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1092,7 +1080,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="3">
-        <v>45635.552083333336</v>
+        <v>46000.552083333336</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
@@ -1108,8 +1096,8 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="4">
-        <v>45639.510416666664</v>
+      <c r="C31" s="3">
+        <v>46003.46875</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/piratage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AF7EE-BB85-1B4F-BF78-6D5EC60B22A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BBEC0-6DCF-D441-8F2B-84ABDDEDD964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="760" windowWidth="16360" windowHeight="17600" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -220,15 +220,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,10 +249,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -249,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -257,7 +288,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +608,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>45891.46875</v>
+        <v>45891.427083333336</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -626,8 +659,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>45895.552083333336</v>
+      <c r="C3" s="4">
+        <v>45895.59375</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -644,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>45898.46875</v>
+        <v>45898.427083333336</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -660,8 +693,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
-        <v>45902.552083333336</v>
+      <c r="C5" s="4">
+        <v>45902.59375</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -678,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>45905.46875</v>
+        <v>45905.427083333336</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -694,8 +727,8 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
-        <v>45912.552083333336</v>
+      <c r="C7" s="4">
+        <v>45912.59375</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -709,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>45916.552083333336</v>
+        <v>45916.59375</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -725,8 +758,8 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
-        <v>45919.46875</v>
+      <c r="C9" s="4">
+        <v>45919.427083333336</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -743,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>45923.552083333336</v>
+        <v>45923.59375</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -759,8 +792,8 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
-        <v>45926.46875</v>
+      <c r="C11" s="4">
+        <v>45926.427083333336</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>42</v>
@@ -777,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>45930.552083333336</v>
+        <v>45930.59375</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
@@ -793,8 +826,8 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
-        <v>45933.46875</v>
+      <c r="C13" s="4">
+        <v>45933.427083333336</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -811,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>45937.552083333336</v>
+        <v>45937.59375</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
@@ -827,8 +860,8 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
-        <v>45940.46875</v>
+      <c r="C15" s="4">
+        <v>45940.427083333336</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
@@ -845,7 +878,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>45951.552083333336</v>
+        <v>45951.59375</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -861,8 +894,8 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
-        <v>45954.46875</v>
+      <c r="C17" s="4">
+        <v>45954.427083333336</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -879,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>45958.552083333336</v>
+        <v>45958.59375</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>33</v>
@@ -895,8 +928,8 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
-        <v>45961.46875</v>
+      <c r="C19" s="4">
+        <v>45961.427083333336</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>34</v>
@@ -913,7 +946,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>45965.552083333336</v>
+        <v>45965.59375</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>40</v>
@@ -929,8 +962,8 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
-        <v>45968.46875</v>
+      <c r="C21" s="4">
+        <v>45968.427083333336</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
@@ -947,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>45972.552083333336</v>
+        <v>45972.59375</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
@@ -963,8 +996,8 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
-        <v>45975.46875</v>
+      <c r="C23" s="4">
+        <v>45975.427083333336</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
@@ -981,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>45979.552083333336</v>
+        <v>45979.59375</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>46</v>
@@ -997,8 +1030,8 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
-        <v>45982.46875</v>
+      <c r="C25" s="4">
+        <v>45982.427083333336</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
@@ -1012,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>45986.552083333336</v>
+        <v>45986.59375</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>48</v>
@@ -1028,8 +1061,8 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="3">
-        <v>45989.46875</v>
+      <c r="C27" s="4">
+        <v>45989.427083333336</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>50</v>
@@ -1046,7 +1079,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3">
-        <v>45993.552083333336</v>
+        <v>45993.59375</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -1062,8 +1095,8 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="3">
-        <v>45996.46875</v>
+      <c r="C29" s="4">
+        <v>45996.427083333336</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1080,7 +1113,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="3">
-        <v>46000.552083333336</v>
+        <v>46000.59375</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
@@ -1096,8 +1129,8 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="3">
-        <v>46003.46875</v>
+      <c r="C31" s="5">
+        <v>46003.427083333336</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/piratage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BBEC0-6DCF-D441-8F2B-84ABDDEDD964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E748359-2EE5-3F4E-8587-0406BBB57D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="760" windowWidth="16360" windowHeight="17600" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>45891.427083333336</v>
+        <v>45891.635416666664</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>45898.427083333336</v>
+        <v>45898.635416666664</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>45905.427083333336</v>
+        <v>45905.635416666664</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -759,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>45919.427083333336</v>
+        <v>45919.635416666664</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>45926.427083333336</v>
+        <v>45926.635416666664</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>42</v>
@@ -827,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>45933.427083333336</v>
+        <v>45933.635416666664</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4">
-        <v>45940.427083333336</v>
+        <v>45940.635416666664</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4">
-        <v>45954.427083333336</v>
+        <v>45954.635416666664</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -929,7 +929,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>45961.427083333336</v>
+        <v>45961.635416666664</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>34</v>
@@ -963,7 +963,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>45968.427083333336</v>
+        <v>45968.635416666664</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
@@ -997,7 +997,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4">
-        <v>45975.427083333336</v>
+        <v>45975.635416666664</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
@@ -1031,7 +1031,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>45982.427083333336</v>
+        <v>45982.635416666664</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
@@ -1062,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>45989.427083333336</v>
+        <v>45989.635416666664</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>50</v>
@@ -1096,7 +1096,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="4">
-        <v>45996.427083333336</v>
+        <v>45996.635416666664</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5">
-        <v>46003.427083333336</v>
+        <v>46003.635416666664</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/piratage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E748359-2EE5-3F4E-8587-0406BBB57D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145166B-A01D-3B47-A80E-14C330F11068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="760" windowWidth="16360" windowHeight="17600" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,10 +796,10 @@
         <v>45926.635416666664</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -813,7 +813,7 @@
         <v>45930.59375</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -830,7 +830,7 @@
         <v>45933.635416666664</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -847,7 +847,7 @@
         <v>45937.59375</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -864,7 +864,7 @@
         <v>45940.635416666664</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -915,7 +915,7 @@
         <v>45958.59375</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -932,7 +932,7 @@
         <v>45961.635416666664</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -949,7 +949,7 @@
         <v>45965.59375</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -966,7 +966,7 @@
         <v>45968.635416666664</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
@@ -983,10 +983,10 @@
         <v>45972.59375</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/piratage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145166B-A01D-3B47-A80E-14C330F11068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC308E-F455-1543-8246-BA5633C216EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="760" windowWidth="16360" windowHeight="17600" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,7 +816,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -850,7 +850,7 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -867,7 +867,7 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -969,7 +969,7 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/piratage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC308E-F455-1543-8246-BA5633C216EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5676A42-7F30-2846-B7F0-16CCA150B23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="760" windowWidth="16360" windowHeight="17600" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -182,22 +182,16 @@
     <t>[Sécuriser serveur Apache](exercices/Securiser_Apache.md)</t>
   </si>
   <si>
-    <t>[Programmer application sécurisée](lecons/Programmer_application_securisee.md) &lt;br/&gt; [Protection injection SQL](lecons/Protection_Injection_SQL.md)</t>
-  </si>
-  <si>
-    <t>[Programmation](exercices/Programmer_application_securisee.md) &lt;br/&gt;[Protection injection SQL](exercices/Proteger_injection_SQL.md)</t>
-  </si>
-  <si>
-    <t>[Chiffrement et données sensibles](lecons/Chiffrement_et_donnees_sensibles.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Chiffrement](exercices/Chiffrement.md) </t>
-  </si>
-  <si>
     <t xml:space="preserve">[Introduction](lecons/Introduction.md) &lt;br/&gt;[Mots de passe](lecons/Mots_de_passe.md)            </t>
   </si>
   <si>
     <t>[Reconnaissance passive](exercices/reconnaissance_passive.md)</t>
+  </si>
+  <si>
+    <t>[Programmer application sécurisée](lecons/Programmer_application_securisee.md) &lt;br/&gt; [Protection injection SQL](lecons/Protection_Injection_SQL.md) &lt;br/&gt;[Chiffrement et données sensibles](lecons/Chiffrement_et_donnees_sensibles.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Programmation](exercices/Programmer_application_securisee.md) &lt;br/&gt;[Protection injection SQL](exercices/Proteger_injection_SQL.md) &lt;br/&gt;[Chiffrement](exercices/Chiffrement.md) </t>
   </si>
 </sst>
 </file>
@@ -608,7 +602,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +640,7 @@
         <v>45891.635416666664</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -666,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1037,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1048,10 +1042,10 @@
         <v>45986.59375</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1065,10 +1059,10 @@
         <v>45989.635416666664</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
